--- a/pcs_num_trans/ch_user.xlsx
+++ b/pcs_num_trans/ch_user.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coms\Desktop\git clone\pcs_num_trans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanaseo\Desktop\gitclone\translation_api\pcs_num_trans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8B84FD-4ADF-4FAE-BF14-E44DEA56E3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3375" yWindow="2520" windowWidth="15855" windowHeight="9735" xr2:uid="{8F7B670B-2840-400D-8F86-801C10BB5C24}"/>
+    <workbookView minimized="1" xWindow="3375" yWindow="2520" windowWidth="15855" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Black</t>
   </si>
@@ -78,11 +77,30 @@
     <t>c</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <r>
+      <t>标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>徽</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,11 +478,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63BE8C1-9C95-4923-8B09-58B0C603E1AE}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -517,8 +535,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pcs_num_trans/ch_user.xlsx
+++ b/pcs_num_trans/ch_user.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="3375" yWindow="2520" windowWidth="15855" windowHeight="9735"/>
+    <workbookView xWindow="3375" yWindow="2520" windowWidth="15855" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Black</t>
   </si>
@@ -96,12 +96,65 @@
       <t>徽</t>
     </r>
   </si>
+  <si>
+    <t>Kraft</t>
+  </si>
+  <si>
+    <r>
+      <t>牛皮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>色</t>
+    </r>
+  </si>
+  <si>
+    <t>silver </t>
+  </si>
+  <si>
+    <r>
+      <t>银</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>色</t>
+    </r>
+  </si>
+  <si>
+    <t>Logo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +185,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,6 +222,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -543,6 +605,30 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
